--- a/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,27 +636,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>110,62%</t>
+          <t>161,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; -0,19</t>
+          <t>-2,4; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,51</t>
+          <t>-0,46; 1,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-76,41; 262,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,39 +756,39 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -796,12 +796,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,44</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,18</t>
+          <t>0,14; 1,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,02</t>
+          <t>-0,65; 1,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 484,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -906,22 +906,22 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,18%</t>
+          <t>-15,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,73</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,86</t>
+          <t>-1,4; 0,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,75</t>
+          <t>-1,25; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,04</t>
+          <t>-0,47; 0,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -979,14 +979,14 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 215,98</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,27 +996,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1054,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,66</t>
+          <t>0,09; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,54</t>
+          <t>-0,57; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,62</t>
+          <t>-0,59; 0,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1089,23 +1089,151 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 484,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,27; 436,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 115,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 0,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 0,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 0,73</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-67,55; 455,2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-64,62; 557,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>161,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>1.053557939168737</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.620453580760756</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.379672814574653</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.441615963197384</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 1,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-2.198358218685528</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4294881354819964</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.306610812693107</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.683959789358278</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>49,95%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 1,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 1,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2312222920432953</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4998669858576222</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2275258075549778</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6474357691116637</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-15,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>38,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.141171217207482</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5563423518774601</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 0,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 1,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 0,73</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>1.251763181498962</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.363878239259271</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.055923918186135</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +817,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4371455849144981</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.203114004935114</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2795102128725766</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.08254721254149391</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3886690401060598</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4067554688740757</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2913527101741367</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,57; 0,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 0,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.085774136277394</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.18254526371903</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4449936085299803</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.363796522236567</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6388293105143219</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.520476242360241</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7653418709734446</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,9%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>39,2%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>64,1%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,71</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 0,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 0,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 0,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-67,55; 455,2</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-64,62; 557,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3368503298050304</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.02778305980326633</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1916546610740146</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2149632540249011</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1458365779297142</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5499196627802951</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6901489124151352</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5835732795925124</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3376283539781635</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2334006620525984</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.6943083138522801</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.6144582058880792</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.053853206995801</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4300710818608211</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7533069827722106</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7293077717673242</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>5.973742613246021</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>5.895647943639101</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
